--- a/pred_ohlcv/54_21/2020-01-14 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 HYC ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>675599.9646000003</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>482612.2407000003</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>482612.2407000003</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>482612.2407000003</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>500491.0096000003</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>500491.0096000003</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>5594357.155599999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>5552719.377099999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5674929.238499999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>5662415.653899999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>5782579.318399999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>5649902.0693</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>5649902.0693</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5326307.925392443</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>6209507.035192443</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>5881748.605092444</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>5882006.605092444</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>6451625.129392443</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>5832235.129392443</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>5059248.399492443</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>5061427.172692442</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>5061427.172692442</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>5062747.172692442</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>15362002.7033</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>15362246.6058</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>14662987.658</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>16813677.3901</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>17422573.2339</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>17481887.8067</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>19919533.4543</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>19956796.70300001</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>19858882.60750001</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>15364311.8883</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>15427446.2085</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>15411709.4328</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>15282433.8701</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>15228617.6178</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>15229509.6178</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>15100349.3726</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>15126409.3726</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>15052330.7924</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>14780664.64280001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 HYC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1769013.3843</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1761417.3929</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1780684.6782</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1780684.6782</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1761464.7478</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1787515.1187</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1641788.653</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1681816.9161</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1681816.9161</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1568533.6111</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1568533.6111</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1462375.7358</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>964879.8481000003</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>964879.8481000003</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>875150.1840000004</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>675099.9646000003</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>3966933.180800001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>5594357.155599999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>5552719.377099999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5674929.238499999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>5662415.653899999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>5782579.318399999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>5649902.0693</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>5649902.0693</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5326307.925392443</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>6209507.035192443</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>5881748.605092444</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>5882006.605092444</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>6451625.129392443</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>5832235.129392443</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>5059248.399492443</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>5061427.172692442</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>5061427.172692442</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>5062747.172692442</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>17189643.8938</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>12098080.7826</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>16068028.6493</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>15969371.8682</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>15362002.7033</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>15362246.6058</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>14662987.658</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>17348745.8962</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>16813677.3901</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>17422573.2339</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>17481887.8067</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>20132144.2718</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>19919533.4543</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>19956796.70300001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>19858882.60750001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>17157499.63550001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>15364311.8883</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>15427446.2085</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>15411709.4328</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>15282433.8701</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>15228617.6178</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>15229509.6178</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>15100349.3726</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>15126409.3726</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>15052330.7924</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>14780664.64280001</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
